--- a/Documentation/SoftwareProcess Burndown Chart.xlsx
+++ b/Documentation/SoftwareProcess Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Process\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\groupproject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -599,7 +599,7 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2161,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C14" s="5">
         <f>SUM(C2:C11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5">
         <f>SUM(D2:D11)</f>

--- a/Documentation/SoftwareProcess Burndown Chart.xlsx
+++ b/Documentation/SoftwareProcess Burndown Chart.xlsx
@@ -599,7 +599,7 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2161,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C14" s="5">
         <f>SUM(C2:C11)</f>
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D14" s="5">
         <f>SUM(D2:D11)</f>
